--- a/Output/532b/532b_Cat_parcel_tax.xlsx
+++ b/Output/532b/532b_Cat_parcel_tax.xlsx
@@ -863,106 +863,106 @@
     <t>Municipal Tax subsidy per dollar income</t>
   </si>
   <si>
+    <t>514800</t>
+  </si>
+  <si>
+    <t>484000</t>
+  </si>
+  <si>
+    <t>512800</t>
+  </si>
+  <si>
+    <t>192600</t>
+  </si>
+  <si>
+    <t>515400</t>
+  </si>
+  <si>
+    <t>512200</t>
+  </si>
+  <si>
+    <t>192800</t>
+  </si>
+  <si>
+    <t>515200</t>
+  </si>
+  <si>
+    <t>484400</t>
+  </si>
+  <si>
+    <t>194000</t>
+  </si>
+  <si>
+    <t>125200</t>
+  </si>
+  <si>
     <t>122000</t>
   </si>
   <si>
-    <t>192600</t>
-  </si>
-  <si>
-    <t>192800</t>
-  </si>
-  <si>
-    <t>512200</t>
-  </si>
-  <si>
-    <t>512800</t>
-  </si>
-  <si>
-    <t>194000</t>
-  </si>
-  <si>
-    <t>484000</t>
-  </si>
-  <si>
-    <t>484400</t>
-  </si>
-  <si>
-    <t>514800</t>
-  </si>
-  <si>
-    <t>515200</t>
-  </si>
-  <si>
-    <t>125200</t>
-  </si>
-  <si>
-    <t>515400</t>
-  </si>
-  <si>
     <t>nan</t>
   </si>
   <si>
+    <t>514801</t>
+  </si>
+  <si>
+    <t>510800</t>
+  </si>
+  <si>
+    <t>331300</t>
+  </si>
+  <si>
+    <t>514001</t>
+  </si>
+  <si>
+    <t>484601</t>
+  </si>
+  <si>
+    <t>192601</t>
+  </si>
+  <si>
+    <t>513801</t>
+  </si>
+  <si>
+    <t>515201</t>
+  </si>
+  <si>
+    <t>433401</t>
+  </si>
+  <si>
+    <t>513601</t>
+  </si>
+  <si>
+    <t>193201</t>
+  </si>
+  <si>
+    <t>192801</t>
+  </si>
+  <si>
+    <t>513203</t>
+  </si>
+  <si>
+    <t>332601</t>
+  </si>
+  <si>
+    <t>484402</t>
+  </si>
+  <si>
+    <t>193601</t>
+  </si>
+  <si>
+    <t>515602</t>
+  </si>
+  <si>
+    <t>513401</t>
+  </si>
+  <si>
+    <t>484401</t>
+  </si>
+  <si>
+    <t>125201</t>
+  </si>
+  <si>
     <t>122002</t>
-  </si>
-  <si>
-    <t>192601</t>
-  </si>
-  <si>
-    <t>192801</t>
-  </si>
-  <si>
-    <t>515602</t>
-  </si>
-  <si>
-    <t>433401</t>
-  </si>
-  <si>
-    <t>193201</t>
-  </si>
-  <si>
-    <t>513203</t>
-  </si>
-  <si>
-    <t>193601</t>
-  </si>
-  <si>
-    <t>510800</t>
-  </si>
-  <si>
-    <t>484402</t>
-  </si>
-  <si>
-    <t>513601</t>
-  </si>
-  <si>
-    <t>484601</t>
-  </si>
-  <si>
-    <t>513801</t>
-  </si>
-  <si>
-    <t>514001</t>
-  </si>
-  <si>
-    <t>332601</t>
-  </si>
-  <si>
-    <t>331300</t>
-  </si>
-  <si>
-    <t>513401</t>
-  </si>
-  <si>
-    <t>484401</t>
-  </si>
-  <si>
-    <t>514801</t>
-  </si>
-  <si>
-    <t>125201</t>
-  </si>
-  <si>
-    <t>515201</t>
   </si>
   <si>
     <t>Locality</t>
@@ -22895,61 +22895,61 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11.73</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2728081860465116</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G2">
-        <v>32876.67904</v>
+        <v>77224.27099999999</v>
       </c>
       <c r="H2">
-        <v>87707.95969</v>
+        <v>281122.16</v>
       </c>
       <c r="I2">
-        <v>114929.03819</v>
+        <v>370964.839</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0001518952506524795</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.172563272849071E-05</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3.162024743805976E-05</v>
       </c>
       <c r="M2">
-        <v>29.389</v>
+        <v>36.244</v>
       </c>
       <c r="N2">
-        <v>838351</v>
+        <v>4810770.9</v>
       </c>
       <c r="O2">
-        <v>44676</v>
+        <v>178371</v>
       </c>
       <c r="P2">
-        <v>44676</v>
+        <v>178371</v>
       </c>
       <c r="Q2">
-        <v>41874</v>
+        <v>146063</v>
       </c>
       <c r="R2">
-        <v>2802</v>
+        <v>32308</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6.576181105673007E-05</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.438278655090393E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -22957,61 +22957,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3">
-        <v>2.65</v>
+        <v>8.73</v>
       </c>
       <c r="D3">
-        <v>0.1151003043478261</v>
+        <v>0.2129420487804878</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G3">
-        <v>27404.37</v>
+        <v>69786.50839</v>
       </c>
       <c r="H3">
-        <v>93756.5591</v>
+        <v>203044.03613</v>
       </c>
       <c r="I3">
-        <v>121666.88617</v>
+        <v>254196.03065</v>
       </c>
       <c r="J3">
-        <v>9.669990589092178E-05</v>
+        <v>0.000125095812950157</v>
       </c>
       <c r="K3">
-        <v>2.826468916349128E-05</v>
+        <v>4.29955992128258E-05</v>
       </c>
       <c r="L3">
-        <v>2.17807826222927E-05</v>
+        <v>3.434357325595005E-05</v>
       </c>
       <c r="M3">
-        <v>35.276</v>
+        <v>35.798</v>
       </c>
       <c r="N3">
-        <v>1036525.5</v>
+        <v>1794190.4</v>
       </c>
       <c r="O3">
-        <v>47335</v>
+        <v>75329</v>
       </c>
       <c r="P3">
-        <v>47335</v>
+        <v>75329</v>
       </c>
       <c r="Q3">
-        <v>41871</v>
+        <v>58986</v>
       </c>
       <c r="R3">
-        <v>5464</v>
+        <v>16343</v>
       </c>
       <c r="S3">
-        <v>5.598394422731594E-05</v>
+        <v>0.0001158916220844562</v>
       </c>
       <c r="T3">
-        <v>2.556618240458146E-06</v>
+        <v>4.865704331045356E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -23019,61 +23019,61 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4">
-        <v>8.73</v>
+        <v>2.65</v>
       </c>
       <c r="D4">
-        <v>0.2129420487804878</v>
+        <v>0.1151003043478261</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G4">
-        <v>69786.50839</v>
+        <v>27404.37</v>
       </c>
       <c r="H4">
-        <v>203044.03613</v>
+        <v>93756.5591</v>
       </c>
       <c r="I4">
-        <v>254196.03065</v>
+        <v>121666.88617</v>
       </c>
       <c r="J4">
-        <v>0.000125095812950157</v>
+        <v>9.669990589092178E-05</v>
       </c>
       <c r="K4">
-        <v>4.29955992128258E-05</v>
+        <v>2.826468916349128E-05</v>
       </c>
       <c r="L4">
-        <v>3.434357325595005E-05</v>
+        <v>2.17807826222927E-05</v>
       </c>
       <c r="M4">
-        <v>35.798</v>
+        <v>35.276</v>
       </c>
       <c r="N4">
-        <v>1794190.4</v>
+        <v>1036525.5</v>
       </c>
       <c r="O4">
-        <v>75329</v>
+        <v>47335</v>
       </c>
       <c r="P4">
-        <v>75329</v>
+        <v>47335</v>
       </c>
       <c r="Q4">
-        <v>58986</v>
+        <v>41871</v>
       </c>
       <c r="R4">
-        <v>16343</v>
+        <v>5464</v>
       </c>
       <c r="S4">
-        <v>0.0001158916220844562</v>
+        <v>5.598394422731594E-05</v>
       </c>
       <c r="T4">
-        <v>4.865704331045356E-06</v>
+        <v>2.556618240458146E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -23081,61 +23081,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>11.73</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2728081860465116</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G5">
-        <v>77224.27099999999</v>
+        <v>32876.67904</v>
       </c>
       <c r="H5">
-        <v>281122.16</v>
+        <v>87707.95969</v>
       </c>
       <c r="I5">
-        <v>370964.839</v>
+        <v>114929.03819</v>
       </c>
       <c r="J5">
-        <v>0.0001518952506524795</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.172563272849071E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3.162024743805976E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>36.244</v>
+        <v>29.389</v>
       </c>
       <c r="N5">
-        <v>4810770.9</v>
+        <v>838351</v>
       </c>
       <c r="O5">
-        <v>178371</v>
+        <v>44676</v>
       </c>
       <c r="P5">
-        <v>178371</v>
+        <v>44676</v>
       </c>
       <c r="Q5">
-        <v>146063</v>
+        <v>41874</v>
       </c>
       <c r="R5">
-        <v>32308</v>
+        <v>2802</v>
       </c>
       <c r="S5">
-        <v>6.576181105673007E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.438278655090393E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -23247,70 +23247,70 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.8649335</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
         <v>281</v>
       </c>
       <c r="I2">
-        <v>1712.324</v>
+        <v>11810.68</v>
       </c>
       <c r="J2">
-        <v>2444.14977</v>
+        <v>16588.701</v>
       </c>
       <c r="K2">
-        <v>2726.4939</v>
+        <v>19787.754</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0007323879742741316</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0005214392615793123</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0004371390507482557</v>
       </c>
       <c r="O2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="P2">
-        <v>39.653</v>
+        <v>37.283</v>
       </c>
       <c r="Q2">
-        <v>23626.4</v>
+        <v>542542.4</v>
       </c>
       <c r="R2">
-        <v>1030</v>
+        <v>19058</v>
       </c>
       <c r="S2">
-        <v>1030</v>
+        <v>19058</v>
       </c>
       <c r="T2">
-        <v>981</v>
+        <v>17110</v>
       </c>
       <c r="U2">
-        <v>49</v>
+        <v>1948</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.000453877636688005</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.594345437333561E-05</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -23318,70 +23318,70 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>1.97</v>
+        <v>4.97</v>
       </c>
       <c r="D3">
-        <v>0.219063</v>
+        <v>0.1505047272727273</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H3" t="s">
         <v>282</v>
       </c>
       <c r="I3">
-        <v>3960.154</v>
+        <v>4819.21</v>
       </c>
       <c r="J3">
-        <v>6100.983</v>
+        <v>6763.07</v>
       </c>
       <c r="K3">
-        <v>6928.942</v>
+        <v>8349.224</v>
       </c>
       <c r="L3">
-        <v>0.0004974554019868924</v>
+        <v>0.001031289360704348</v>
       </c>
       <c r="M3">
-        <v>0.0003228987853268891</v>
+        <v>0.0007348733637238709</v>
       </c>
       <c r="N3">
-        <v>0.0002843146904678954</v>
+        <v>0.0005952649012650756</v>
       </c>
       <c r="O3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P3">
-        <v>34.441</v>
+        <v>40.643</v>
       </c>
       <c r="Q3">
-        <v>237144.7</v>
+        <v>346767.2</v>
       </c>
       <c r="R3">
-        <v>11364</v>
+        <v>11455</v>
       </c>
       <c r="S3">
-        <v>11364</v>
+        <v>11455</v>
       </c>
       <c r="T3">
-        <v>9756</v>
+        <v>10013</v>
       </c>
       <c r="U3">
-        <v>1608</v>
+        <v>1442</v>
       </c>
       <c r="V3">
-        <v>0.000173354452657515</v>
+        <v>0.0004338716717590571</v>
       </c>
       <c r="W3">
-        <v>8.307164359987804E-06</v>
+        <v>1.433238207073795E-05</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -23389,70 +23389,70 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4">
-        <v>0.31</v>
+        <v>3.04</v>
       </c>
       <c r="D4">
-        <v>0.152874</v>
+        <v>0.2760429090909091</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H4" t="s">
         <v>283</v>
       </c>
       <c r="I4">
-        <v>2189.919</v>
+        <v>2312.19988</v>
       </c>
       <c r="J4">
-        <v>3188.98985</v>
+        <v>3254.5508</v>
       </c>
       <c r="K4">
-        <v>3677.80307</v>
+        <v>4088.32135</v>
       </c>
       <c r="L4">
-        <v>0.0001415577471130211</v>
+        <v>0.001314765226957801</v>
       </c>
       <c r="M4">
-        <v>9.720946587522064E-05</v>
+        <v>0.0009340766781086963</v>
       </c>
       <c r="N4">
-        <v>8.428945054961847E-05</v>
+        <v>0.0007435814701796863</v>
       </c>
       <c r="O4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P4">
-        <v>46.823</v>
+        <v>44.704</v>
       </c>
       <c r="Q4">
-        <v>144317</v>
+        <v>201567.8</v>
       </c>
       <c r="R4">
-        <v>8438</v>
+        <v>6055</v>
       </c>
       <c r="S4">
-        <v>8438</v>
+        <v>6055</v>
       </c>
       <c r="T4">
-        <v>6644</v>
+        <v>5377</v>
       </c>
       <c r="U4">
-        <v>1794</v>
+        <v>678</v>
       </c>
       <c r="V4">
-        <v>3.673856364067314E-05</v>
+        <v>0.0005020644095788605</v>
       </c>
       <c r="W4">
-        <v>2.148049086386219E-06</v>
+        <v>1.508177397381923E-05</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -23460,70 +23460,70 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>1.11</v>
+        <v>1.97</v>
       </c>
       <c r="D5">
-        <v>0.1110384</v>
+        <v>0.219063</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H5" t="s">
         <v>284</v>
       </c>
       <c r="I5">
-        <v>3786.858</v>
+        <v>3960.154</v>
       </c>
       <c r="J5">
-        <v>5593.48043</v>
+        <v>6100.983</v>
       </c>
       <c r="K5">
-        <v>6246.11243</v>
+        <v>6928.942</v>
       </c>
       <c r="L5">
-        <v>0.0002931189920509298</v>
+        <v>0.0004974554019868924</v>
       </c>
       <c r="M5">
-        <v>0.0001984453175247813</v>
+        <v>0.0003228987853268891</v>
       </c>
       <c r="N5">
-        <v>0.0001777105379449598</v>
+        <v>0.0002843146904678954</v>
       </c>
       <c r="O5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P5">
-        <v>42.393</v>
+        <v>34.441</v>
       </c>
       <c r="Q5">
-        <v>284322</v>
+        <v>237144.7</v>
       </c>
       <c r="R5">
-        <v>8760</v>
+        <v>11364</v>
       </c>
       <c r="S5">
-        <v>8760</v>
+        <v>11364</v>
       </c>
       <c r="T5">
-        <v>7883</v>
+        <v>9756</v>
       </c>
       <c r="U5">
-        <v>877</v>
+        <v>1608</v>
       </c>
       <c r="V5">
-        <v>0.0001267123287671233</v>
+        <v>0.000173354452657515</v>
       </c>
       <c r="W5">
-        <v>3.904024310464895E-06</v>
+        <v>8.307164359987804E-06</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -23531,70 +23531,70 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <v>3.04</v>
+        <v>1.71</v>
       </c>
       <c r="D6">
-        <v>0.2760429090909091</v>
+        <v>0.2439051428571428</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="I6">
-        <v>2312.19988</v>
+        <v>710.732</v>
       </c>
       <c r="J6">
-        <v>3254.5508</v>
+        <v>1340.004</v>
       </c>
       <c r="K6">
-        <v>4088.32135</v>
+        <v>1467.536</v>
       </c>
       <c r="L6">
-        <v>0.001314765226957801</v>
+        <v>0.002405970182853734</v>
       </c>
       <c r="M6">
-        <v>0.0009340766781086963</v>
+        <v>0.001276115593684795</v>
       </c>
       <c r="N6">
-        <v>0.0007435814701796863</v>
+        <v>0.001165218434164477</v>
       </c>
       <c r="O6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P6">
-        <v>44.704</v>
+        <v>36.484</v>
       </c>
       <c r="Q6">
-        <v>201567.8</v>
+        <v>14056.2</v>
       </c>
       <c r="R6">
-        <v>6055</v>
+        <v>696</v>
       </c>
       <c r="S6">
-        <v>6055</v>
+        <v>696</v>
       </c>
       <c r="T6">
-        <v>5377</v>
+        <v>676</v>
       </c>
       <c r="U6">
-        <v>678</v>
+        <v>20</v>
       </c>
       <c r="V6">
-        <v>0.0005020644095788605</v>
+        <v>0.002456896551724138</v>
       </c>
       <c r="W6">
-        <v>1.508177397381923E-05</v>
+        <v>0.000121654501216545</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -23602,70 +23602,70 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.3299328</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I7">
-        <v>1258.129</v>
+        <v>11543.123</v>
       </c>
       <c r="J7">
-        <v>1345.091</v>
+        <v>22687.218</v>
       </c>
       <c r="K7">
-        <v>1648.829</v>
+        <v>23922.808</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.000142942252283026</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.272817672047758E-05</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.897183641652769E-05</v>
       </c>
       <c r="O7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="P7">
-        <v>40.179</v>
+        <v>36.825</v>
       </c>
       <c r="Q7">
-        <v>18542.8</v>
+        <v>303260.9</v>
       </c>
       <c r="R7">
-        <v>661</v>
+        <v>12551</v>
       </c>
       <c r="S7">
-        <v>661</v>
+        <v>12551</v>
       </c>
       <c r="T7">
-        <v>659</v>
+        <v>10634</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1917</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.0001314636283961437</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>5.440859669017667E-06</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -23673,70 +23673,70 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8">
-        <v>4.97</v>
+        <v>1.11</v>
       </c>
       <c r="D8">
-        <v>0.1505047272727273</v>
+        <v>0.1110384</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I8">
-        <v>4819.21</v>
+        <v>3786.858</v>
       </c>
       <c r="J8">
-        <v>6763.07</v>
+        <v>5593.48043</v>
       </c>
       <c r="K8">
-        <v>8349.224</v>
+        <v>6246.11243</v>
       </c>
       <c r="L8">
-        <v>0.001031289360704348</v>
+        <v>0.0002931189920509298</v>
       </c>
       <c r="M8">
-        <v>0.0007348733637238709</v>
+        <v>0.0001984453175247813</v>
       </c>
       <c r="N8">
-        <v>0.0005952649012650756</v>
+        <v>0.0001777105379449598</v>
       </c>
       <c r="O8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P8">
-        <v>40.643</v>
+        <v>42.393</v>
       </c>
       <c r="Q8">
-        <v>346767.2</v>
+        <v>284322</v>
       </c>
       <c r="R8">
-        <v>11455</v>
+        <v>8760</v>
       </c>
       <c r="S8">
-        <v>11455</v>
+        <v>8760</v>
       </c>
       <c r="T8">
-        <v>10013</v>
+        <v>7883</v>
       </c>
       <c r="U8">
-        <v>1442</v>
+        <v>877</v>
       </c>
       <c r="V8">
-        <v>0.0004338716717590571</v>
+        <v>0.0001267123287671233</v>
       </c>
       <c r="W8">
-        <v>1.433238207073795E-05</v>
+        <v>3.904024310464895E-06</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -23744,70 +23744,70 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.17225</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I9">
-        <v>2170.674</v>
+        <v>2587.483</v>
       </c>
       <c r="J9">
-        <v>3404.29464</v>
+        <v>3488.475</v>
       </c>
       <c r="K9">
-        <v>4199.73112</v>
+        <v>4212.757</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.00026666841869106</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0001977941650721304</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.0001637882270446646</v>
       </c>
       <c r="O9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P9">
-        <v>43.084</v>
+        <v>41.937</v>
       </c>
       <c r="Q9">
-        <v>148395.9</v>
+        <v>264128</v>
       </c>
       <c r="R9">
-        <v>5506</v>
+        <v>10229</v>
       </c>
       <c r="S9">
-        <v>5506</v>
+        <v>10229</v>
       </c>
       <c r="T9">
-        <v>4470</v>
+        <v>8529</v>
       </c>
       <c r="U9">
-        <v>1036</v>
+        <v>1700</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>6.745527422035389E-05</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>2.612369760116307E-06</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -23815,70 +23815,70 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10">
-        <v>0.02</v>
+        <v>0.48</v>
       </c>
       <c r="D10">
-        <v>0.020126</v>
+        <v>0.4818</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10">
-        <v>1155.607</v>
+        <v>4825.029</v>
       </c>
       <c r="J10">
-        <v>1728.10683</v>
+        <v>6113.093</v>
       </c>
       <c r="K10">
-        <v>2183.78341</v>
+        <v>7043.666</v>
       </c>
       <c r="L10">
-        <v>1.730692181684604E-05</v>
+        <v>9.948126736647592E-05</v>
       </c>
       <c r="M10">
-        <v>1.157335857529132E-05</v>
+        <v>7.851998979894465E-05</v>
       </c>
       <c r="N10">
-        <v>9.158417409169713E-06</v>
+        <v>6.814633175394744E-05</v>
       </c>
       <c r="O10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P10">
-        <v>33.503</v>
+        <v>31.144</v>
       </c>
       <c r="Q10">
-        <v>76469.3</v>
+        <v>121187</v>
       </c>
       <c r="R10">
-        <v>3256</v>
+        <v>4297</v>
       </c>
       <c r="S10">
-        <v>3256</v>
+        <v>4297</v>
       </c>
       <c r="T10">
-        <v>3091</v>
+        <v>3844</v>
       </c>
       <c r="U10">
-        <v>165</v>
+        <v>453</v>
       </c>
       <c r="V10">
-        <v>6.142506142506143E-06</v>
+        <v>0.0001117058412846172</v>
       </c>
       <c r="W10">
-        <v>2.615428675298453E-07</v>
+        <v>3.960820880127406E-06</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -23886,70 +23886,70 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C11">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="D11">
-        <v>0.4818</v>
+        <v>0.152874</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="I11">
-        <v>4825.029</v>
+        <v>2189.919</v>
       </c>
       <c r="J11">
-        <v>6113.093</v>
+        <v>3188.98985</v>
       </c>
       <c r="K11">
-        <v>7043.666</v>
+        <v>3677.80307</v>
       </c>
       <c r="L11">
-        <v>9.948126736647592E-05</v>
+        <v>0.0001415577471130211</v>
       </c>
       <c r="M11">
-        <v>7.851998979894465E-05</v>
+        <v>9.720946587522064E-05</v>
       </c>
       <c r="N11">
-        <v>6.814633175394744E-05</v>
+        <v>8.428945054961847E-05</v>
       </c>
       <c r="O11" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="P11">
-        <v>31.144</v>
+        <v>46.823</v>
       </c>
       <c r="Q11">
-        <v>121187</v>
+        <v>144317</v>
       </c>
       <c r="R11">
-        <v>4297</v>
+        <v>8438</v>
       </c>
       <c r="S11">
-        <v>4297</v>
+        <v>8438</v>
       </c>
       <c r="T11">
-        <v>3844</v>
+        <v>6644</v>
       </c>
       <c r="U11">
-        <v>453</v>
+        <v>1794</v>
       </c>
       <c r="V11">
-        <v>0.0001117058412846172</v>
+        <v>3.673856364067314E-05</v>
       </c>
       <c r="W11">
-        <v>3.960820880127406E-06</v>
+        <v>2.148049086386219E-06</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -23957,70 +23957,70 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12">
-        <v>0.6899999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="D12">
-        <v>0.17225</v>
+        <v>0.020126</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I12">
-        <v>2587.483</v>
+        <v>1155.607</v>
       </c>
       <c r="J12">
-        <v>3488.475</v>
+        <v>1728.10683</v>
       </c>
       <c r="K12">
-        <v>4212.757</v>
+        <v>2183.78341</v>
       </c>
       <c r="L12">
-        <v>0.00026666841869106</v>
+        <v>1.730692181684604E-05</v>
       </c>
       <c r="M12">
-        <v>0.0001977941650721304</v>
+        <v>1.157335857529132E-05</v>
       </c>
       <c r="N12">
-        <v>0.0001637882270446646</v>
+        <v>9.158417409169713E-06</v>
       </c>
       <c r="O12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P12">
-        <v>41.937</v>
+        <v>33.503</v>
       </c>
       <c r="Q12">
-        <v>264128</v>
+        <v>76469.3</v>
       </c>
       <c r="R12">
-        <v>10229</v>
+        <v>3256</v>
       </c>
       <c r="S12">
-        <v>10229</v>
+        <v>3256</v>
       </c>
       <c r="T12">
-        <v>8529</v>
+        <v>3091</v>
       </c>
       <c r="U12">
-        <v>1700</v>
+        <v>165</v>
       </c>
       <c r="V12">
-        <v>6.745527422035389E-05</v>
+        <v>6.142506142506143E-06</v>
       </c>
       <c r="W12">
-        <v>2.612369760116307E-06</v>
+        <v>2.615428675298453E-07</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -24028,70 +24028,70 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C13">
-        <v>1.71</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
-        <v>0.2439051428571428</v>
+        <v>0.010175</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="I13">
-        <v>710.732</v>
+        <v>4172.386</v>
       </c>
       <c r="J13">
-        <v>1340.004</v>
+        <v>7344.263</v>
       </c>
       <c r="K13">
-        <v>1467.536</v>
+        <v>8298.001</v>
       </c>
       <c r="L13">
-        <v>0.002405970182853734</v>
+        <v>2.396710179738883E-06</v>
       </c>
       <c r="M13">
-        <v>0.001276115593684795</v>
+        <v>1.361607012167184E-06</v>
       </c>
       <c r="N13">
-        <v>0.001165218434164477</v>
+        <v>1.2051095197506E-06</v>
       </c>
       <c r="O13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P13">
-        <v>36.484</v>
+        <v>41.949</v>
       </c>
       <c r="Q13">
-        <v>14056.2</v>
+        <v>344285.6</v>
       </c>
       <c r="R13">
-        <v>696</v>
+        <v>13909</v>
       </c>
       <c r="S13">
-        <v>696</v>
+        <v>13909</v>
       </c>
       <c r="T13">
-        <v>676</v>
+        <v>10833</v>
       </c>
       <c r="U13">
-        <v>20</v>
+        <v>3076</v>
       </c>
       <c r="V13">
-        <v>0.002456896551724138</v>
+        <v>7.189589474441009E-07</v>
       </c>
       <c r="W13">
-        <v>0.000121654501216545</v>
+        <v>2.904565279523744E-08</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -24099,7 +24099,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -24108,25 +24108,25 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H14" t="s">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="I14">
-        <v>3188.35</v>
+        <v>2170.674</v>
       </c>
       <c r="J14">
-        <v>5788.676</v>
+        <v>3404.29464</v>
       </c>
       <c r="K14">
-        <v>6677.223</v>
+        <v>4199.73112</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -24138,25 +24138,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P14">
-        <v>30.085</v>
+        <v>43.084</v>
       </c>
       <c r="Q14">
-        <v>69635.2</v>
+        <v>148395.9</v>
       </c>
       <c r="R14">
-        <v>3680</v>
+        <v>5506</v>
       </c>
       <c r="S14">
-        <v>3680</v>
+        <v>5506</v>
       </c>
       <c r="T14">
-        <v>2899</v>
+        <v>4470</v>
       </c>
       <c r="U14">
-        <v>781</v>
+        <v>1036</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -24170,70 +24170,70 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.8649335</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H15" t="s">
         <v>289</v>
       </c>
       <c r="I15">
-        <v>11810.68</v>
+        <v>3188.35</v>
       </c>
       <c r="J15">
-        <v>16588.701</v>
+        <v>5788.676</v>
       </c>
       <c r="K15">
-        <v>19787.754</v>
+        <v>6677.223</v>
       </c>
       <c r="L15">
-        <v>0.0007323879742741316</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0005214392615793123</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.0004371390507482557</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P15">
-        <v>37.283</v>
+        <v>30.085</v>
       </c>
       <c r="Q15">
-        <v>542542.4</v>
+        <v>69635.2</v>
       </c>
       <c r="R15">
-        <v>19058</v>
+        <v>3680</v>
       </c>
       <c r="S15">
-        <v>19058</v>
+        <v>3680</v>
       </c>
       <c r="T15">
-        <v>17110</v>
+        <v>2899</v>
       </c>
       <c r="U15">
-        <v>1948</v>
+        <v>781</v>
       </c>
       <c r="V15">
-        <v>0.000453877636688005</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1.594345437333561E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -24241,70 +24241,70 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.010175</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="H16" t="s">
         <v>290</v>
       </c>
       <c r="I16">
-        <v>4172.386</v>
+        <v>1258.129</v>
       </c>
       <c r="J16">
-        <v>7344.263</v>
+        <v>1345.091</v>
       </c>
       <c r="K16">
-        <v>8298.001</v>
+        <v>1648.829</v>
       </c>
       <c r="L16">
-        <v>2.396710179738883E-06</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.361607012167184E-06</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.2051095197506E-06</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="P16">
-        <v>41.949</v>
+        <v>40.179</v>
       </c>
       <c r="Q16">
-        <v>344285.6</v>
+        <v>18542.8</v>
       </c>
       <c r="R16">
-        <v>13909</v>
+        <v>661</v>
       </c>
       <c r="S16">
-        <v>13909</v>
+        <v>661</v>
       </c>
       <c r="T16">
-        <v>10833</v>
+        <v>659</v>
       </c>
       <c r="U16">
-        <v>3076</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>7.189589474441009E-07</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>2.904565279523744E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -24365,70 +24365,70 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C18">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3299328</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="H18" t="s">
         <v>292</v>
       </c>
       <c r="I18">
-        <v>11543.123</v>
+        <v>1712.324</v>
       </c>
       <c r="J18">
-        <v>22687.218</v>
+        <v>2444.14977</v>
       </c>
       <c r="K18">
-        <v>23922.808</v>
+        <v>2726.4939</v>
       </c>
       <c r="L18">
-        <v>0.000142942252283026</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>7.272817672047758E-05</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>6.897183641652769E-05</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="P18">
-        <v>36.825</v>
+        <v>39.653</v>
       </c>
       <c r="Q18">
-        <v>303260.9</v>
+        <v>23626.4</v>
       </c>
       <c r="R18">
-        <v>12551</v>
+        <v>1030</v>
       </c>
       <c r="S18">
-        <v>12551</v>
+        <v>1030</v>
       </c>
       <c r="T18">
-        <v>10634</v>
+        <v>981</v>
       </c>
       <c r="U18">
-        <v>1917</v>
+        <v>49</v>
       </c>
       <c r="V18">
-        <v>0.0001314636283961437</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>5.440859669017667E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -24510,37 +24510,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>24.89</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.4885567</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>294</v>
       </c>
       <c r="G2">
-        <v>2973.154</v>
+        <v>37047.502</v>
       </c>
       <c r="H2">
-        <v>3164.032</v>
+        <v>42418.757</v>
       </c>
       <c r="I2">
-        <v>4296.023</v>
+        <v>67674.447</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0006718401688729243</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0005867687259199981</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000367790223686645</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -24548,37 +24548,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3">
-        <v>8.33</v>
+        <v>14.88</v>
       </c>
       <c r="D3">
-        <v>0.9255567777777779</v>
+        <v>1.14453</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>295</v>
       </c>
       <c r="G3">
-        <v>18184.04</v>
+        <v>99582.43399999999</v>
       </c>
       <c r="H3">
-        <v>24221.616</v>
+        <v>115019.768</v>
       </c>
       <c r="I3">
-        <v>43645.19</v>
+        <v>197177.278</v>
       </c>
       <c r="J3">
-        <v>0.0004580940209106447</v>
+        <v>0.0001494239435842671</v>
       </c>
       <c r="K3">
-        <v>0.0003439076897263998</v>
+        <v>0.0001293690663677917</v>
       </c>
       <c r="L3">
-        <v>0.0001908572284826805</v>
+        <v>7.546508477513317E-05</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -24586,37 +24586,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C4">
-        <v>0.64</v>
+        <v>14.43</v>
       </c>
       <c r="D4">
-        <v>0.6432</v>
+        <v>2.061218571428571</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>296</v>
       </c>
       <c r="G4">
-        <v>17068.583</v>
+        <v>25915.941</v>
       </c>
       <c r="H4">
-        <v>20252.662</v>
+        <v>32803.265</v>
       </c>
       <c r="I4">
-        <v>33030.598</v>
+        <v>79973.853</v>
       </c>
       <c r="J4">
-        <v>3.749578977938591E-05</v>
+        <v>0.0005568001563207757</v>
       </c>
       <c r="K4">
-        <v>3.160078413395731E-05</v>
+        <v>0.0004398952360382419</v>
       </c>
       <c r="L4">
-        <v>1.937597375621235E-05</v>
+        <v>0.0001804339725885159</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -24624,37 +24624,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.8779614</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>297</v>
       </c>
       <c r="G5">
-        <v>23522.892</v>
+        <v>43018.98</v>
       </c>
       <c r="H5">
-        <v>26792.783</v>
+        <v>45952.433</v>
       </c>
       <c r="I5">
-        <v>53553.227</v>
+        <v>57110.278</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0002040959595043862</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0001910671411021915</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0001537376512157759</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -24662,37 +24662,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C6">
-        <v>2.39</v>
+        <v>8.48</v>
       </c>
       <c r="D6">
-        <v>0.3419974285714286</v>
+        <v>0.5297690625000001</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>298</v>
       </c>
       <c r="G6">
-        <v>6555.072</v>
+        <v>42510.433</v>
       </c>
       <c r="H6">
-        <v>7984.775</v>
+        <v>50519.456</v>
       </c>
       <c r="I6">
-        <v>12002.375</v>
+        <v>94024.497</v>
       </c>
       <c r="J6">
-        <v>0.0003646031653046679</v>
+        <v>0.0001994804428362327</v>
       </c>
       <c r="K6">
-        <v>0.000299319642695004</v>
+        <v>0.0001678561225995783</v>
       </c>
       <c r="L6">
-        <v>0.000199127256063904</v>
+        <v>9.018926206007781E-05</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -24700,37 +24700,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C7">
-        <v>1.13</v>
+        <v>8.33</v>
       </c>
       <c r="D7">
-        <v>0.5628880000000001</v>
+        <v>0.9255567777777779</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>299</v>
       </c>
       <c r="G7">
-        <v>15660.378</v>
+        <v>18184.04</v>
       </c>
       <c r="H7">
-        <v>18670.563</v>
+        <v>24221.616</v>
       </c>
       <c r="I7">
-        <v>33556.962</v>
+        <v>43645.19</v>
       </c>
       <c r="J7">
-        <v>7.215662355021059E-05</v>
+        <v>0.0004580940209106447</v>
       </c>
       <c r="K7">
-        <v>6.052308117328867E-05</v>
+        <v>0.0003439076897263998</v>
       </c>
       <c r="L7">
-        <v>3.367408527625355E-05</v>
+        <v>0.0001908572284826805</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -24738,37 +24738,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8">
-        <v>0.45</v>
+        <v>3.51</v>
       </c>
       <c r="D8">
-        <v>0.454895</v>
+        <v>1.169450333333333</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>300</v>
       </c>
       <c r="G8">
-        <v>27222.823</v>
+        <v>43189.02</v>
       </c>
       <c r="H8">
-        <v>30553.631</v>
+        <v>47313.422</v>
       </c>
       <c r="I8">
-        <v>46422.845</v>
+        <v>65022.727</v>
       </c>
       <c r="J8">
-        <v>1.653024743245768E-05</v>
+        <v>8.127065629180751E-05</v>
       </c>
       <c r="K8">
-        <v>1.472820038966891E-05</v>
+        <v>7.418613686408056E-05</v>
       </c>
       <c r="L8">
-        <v>9.693503274088436E-06</v>
+        <v>5.398112570701625E-05</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -24776,37 +24776,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1.159993333333333</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>301</v>
       </c>
       <c r="G9">
-        <v>11411.889</v>
+        <v>40162.234</v>
       </c>
       <c r="H9">
-        <v>12363.463</v>
+        <v>45586.37</v>
       </c>
       <c r="I9">
-        <v>15401.542</v>
+        <v>78803.648</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.664856641191822E-05</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7.633860735127626E-05</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>4.416039216864681E-05</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -24814,37 +24814,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C10">
-        <v>14.88</v>
+        <v>2.39</v>
       </c>
       <c r="D10">
-        <v>1.14453</v>
+        <v>0.3419974285714286</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>302</v>
       </c>
       <c r="G10">
-        <v>99582.43399999999</v>
+        <v>6555.072</v>
       </c>
       <c r="H10">
-        <v>115019.768</v>
+        <v>7984.775</v>
       </c>
       <c r="I10">
-        <v>197177.278</v>
+        <v>12002.375</v>
       </c>
       <c r="J10">
-        <v>0.0001494239435842671</v>
+        <v>0.0003646031653046679</v>
       </c>
       <c r="K10">
-        <v>0.0001293690663677917</v>
+        <v>0.000299319642695004</v>
       </c>
       <c r="L10">
-        <v>7.546508477513317E-05</v>
+        <v>0.000199127256063904</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -24852,37 +24852,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.582368</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>303</v>
       </c>
       <c r="G11">
-        <v>8468.084999999999</v>
+        <v>34074.421</v>
       </c>
       <c r="H11">
-        <v>9654.253000000001</v>
+        <v>39611.709</v>
       </c>
       <c r="I11">
-        <v>17094.922</v>
+        <v>58544.553</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.636909310946179E-05</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.988719598036025E-05</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.69879932297032E-05</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -24890,37 +24890,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C12">
-        <v>1.58</v>
+        <v>1.13</v>
       </c>
       <c r="D12">
-        <v>1.582368</v>
+        <v>0.5628880000000001</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>304</v>
       </c>
       <c r="G12">
-        <v>34074.421</v>
+        <v>15660.378</v>
       </c>
       <c r="H12">
-        <v>39611.709</v>
+        <v>18670.563</v>
       </c>
       <c r="I12">
-        <v>58544.553</v>
+        <v>33556.962</v>
       </c>
       <c r="J12">
-        <v>4.636909310946179E-05</v>
+        <v>7.215662355021059E-05</v>
       </c>
       <c r="K12">
-        <v>3.988719598036025E-05</v>
+        <v>6.052308117328867E-05</v>
       </c>
       <c r="L12">
-        <v>2.69879932297032E-05</v>
+        <v>3.367408527625355E-05</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -24928,37 +24928,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C13">
-        <v>8.48</v>
+        <v>0.64</v>
       </c>
       <c r="D13">
-        <v>0.5297690625000001</v>
+        <v>0.6432</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>305</v>
       </c>
       <c r="G13">
-        <v>42510.433</v>
+        <v>17068.583</v>
       </c>
       <c r="H13">
-        <v>50519.456</v>
+        <v>20252.662</v>
       </c>
       <c r="I13">
-        <v>94024.497</v>
+        <v>33030.598</v>
       </c>
       <c r="J13">
-        <v>0.0001994804428362327</v>
+        <v>3.749578977938591E-05</v>
       </c>
       <c r="K13">
-        <v>0.0001678561225995783</v>
+        <v>3.160078413395731E-05</v>
       </c>
       <c r="L13">
-        <v>9.018926206007781E-05</v>
+        <v>1.937597375621235E-05</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -24966,37 +24966,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14">
-        <v>3.51</v>
+        <v>0.45</v>
       </c>
       <c r="D14">
-        <v>1.169450333333333</v>
+        <v>0.454895</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>306</v>
       </c>
       <c r="G14">
-        <v>43189.02</v>
+        <v>27222.823</v>
       </c>
       <c r="H14">
-        <v>47313.422</v>
+        <v>30553.631</v>
       </c>
       <c r="I14">
-        <v>65022.727</v>
+        <v>46422.845</v>
       </c>
       <c r="J14">
-        <v>8.127065629180751E-05</v>
+        <v>1.653024743245768E-05</v>
       </c>
       <c r="K14">
-        <v>7.418613686408056E-05</v>
+        <v>1.472820038966891E-05</v>
       </c>
       <c r="L14">
-        <v>5.398112570701625E-05</v>
+        <v>9.693503274088436E-06</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -25004,37 +25004,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C15">
-        <v>8.779999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="D15">
-        <v>0.8779614</v>
+        <v>0.0257125</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>307</v>
       </c>
       <c r="G15">
-        <v>43018.98</v>
+        <v>56591.771</v>
       </c>
       <c r="H15">
-        <v>45952.433</v>
+        <v>63970.025</v>
       </c>
       <c r="I15">
-        <v>57110.278</v>
+        <v>125079.261</v>
       </c>
       <c r="J15">
-        <v>0.0002040959595043862</v>
+        <v>8.835206800649515E-07</v>
       </c>
       <c r="K15">
-        <v>0.0001910671411021915</v>
+        <v>7.816160772174155E-07</v>
       </c>
       <c r="L15">
-        <v>0.0001537376512157759</v>
+        <v>3.997465255251229E-07</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -25042,37 +25042,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C16">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0257125</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
         <v>308</v>
       </c>
       <c r="G16">
-        <v>56591.771</v>
+        <v>8468.084999999999</v>
       </c>
       <c r="H16">
-        <v>63970.025</v>
+        <v>9654.253000000001</v>
       </c>
       <c r="I16">
-        <v>125079.261</v>
+        <v>17094.922</v>
       </c>
       <c r="J16">
-        <v>8.835206800649515E-07</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>7.816160772174155E-07</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3.997465255251229E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -25080,37 +25080,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C17">
-        <v>14.43</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2.061218571428571</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>309</v>
       </c>
       <c r="G17">
-        <v>25915.941</v>
+        <v>11411.889</v>
       </c>
       <c r="H17">
-        <v>32803.265</v>
+        <v>12363.463</v>
       </c>
       <c r="I17">
-        <v>79973.853</v>
+        <v>15401.542</v>
       </c>
       <c r="J17">
-        <v>0.0005568001563207757</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.0004398952360382419</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.0001804339725885159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -25118,7 +25118,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -25127,19 +25127,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>310</v>
       </c>
       <c r="G18">
-        <v>36294.193</v>
+        <v>23522.892</v>
       </c>
       <c r="H18">
-        <v>40956.093</v>
+        <v>26792.783</v>
       </c>
       <c r="I18">
-        <v>65776.83900000001</v>
+        <v>53553.227</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -25165,19 +25165,19 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>311</v>
       </c>
       <c r="G19">
-        <v>5250.725</v>
+        <v>36294.193</v>
       </c>
       <c r="H19">
-        <v>6162.203</v>
+        <v>40956.093</v>
       </c>
       <c r="I19">
-        <v>10181.633</v>
+        <v>65776.83900000001</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -25194,37 +25194,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C20">
-        <v>24.89</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2.4885567</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>312</v>
       </c>
       <c r="G20">
-        <v>37047.502</v>
+        <v>5250.725</v>
       </c>
       <c r="H20">
-        <v>42418.757</v>
+        <v>6162.203</v>
       </c>
       <c r="I20">
-        <v>67674.447</v>
+        <v>10181.633</v>
       </c>
       <c r="J20">
-        <v>0.0006718401688729243</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.0005867687259199981</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.000367790223686645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -25270,37 +25270,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C22">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1.159993333333333</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>314</v>
       </c>
       <c r="G22">
-        <v>40162.234</v>
+        <v>2973.154</v>
       </c>
       <c r="H22">
-        <v>45586.37</v>
+        <v>3164.032</v>
       </c>
       <c r="I22">
-        <v>78803.648</v>
+        <v>4296.023</v>
       </c>
       <c r="J22">
-        <v>8.664856641191822E-05</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>7.633860735127626E-05</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4.416039216864681E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
